--- a/StructureDefinition-profile-Questionnaire.xlsx
+++ b/StructureDefinition-profile-Questionnaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7743538-06:00</t>
+    <t>2026-02-09T22:05:43.2874713-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,33 +426,79 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.versionAlgorithm[x]` is will have a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.copyrightLabel` is will have a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -460,6 +506,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -693,20 +742,13 @@
     <t>Questionnaire.subjectType.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.extension:subjectType</t>
+  </si>
+  <si>
+    <t>subjectType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.subjectType|0.0.1-snapshot-3}
@@ -716,8 +758,7 @@
     <t>Cross-version extension for Questionnaire.subjectType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `Questionnaire.subjectType` is mapped to FHIR R4 element `Questionnaire.subjectType`.</t>
   </si>
   <si>
     <t>Questionnaire.subjectType.value</t>
@@ -1051,7 +1092,24 @@
     <t>Questionnaire.item.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Questionnaire.item.extension:disabledDisplay</t>
+  </si>
+  <si>
+    <t>disabledDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.disabledDisplay|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.item.disabledDisplay from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if and how items that are disabled (because enableWhen evaluates to 'false') should be displayed.</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.item.disabledDisplay` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
+Element `Questionnaire.item.disabledDisplay` is will have a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1193,6 +1251,12 @@
     <t>Questionnaire.item.type.extension</t>
   </si>
   <si>
+    <t>Questionnaire.item.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.type|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1203,6 +1267,10 @@
     <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, Coding, etc.).</t>
   </si>
   <si>
+    <t>Element `Questionnaire.item.type` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
+Element `Questionnaire.item.type` is mapped to FHIR R4 element `Questionnaire.item.type`.</t>
+  </si>
+  <si>
     <t>Questionnaire.item.type.value</t>
   </si>
   <si>
@@ -1229,6 +1297,12 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1823,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1834,7 +1908,7 @@
   <cols>
     <col min="1" max="1" width="43.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1842,7 +1916,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2823,7 +2897,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2842,17 +2916,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2889,16 +2961,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2919,7 +2989,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2936,43 +3006,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3020,7 +3090,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3029,7 +3099,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3038,7 +3108,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -3052,12 +3122,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3075,23 +3147,21 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3139,28 +3209,28 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -3178,7 +3248,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3191,13 +3261,13 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>155</v>
@@ -3258,7 +3328,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3270,19 +3340,19 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3290,10 +3360,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3316,18 +3386,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3375,7 +3447,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3390,13 +3462,13 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3407,10 +3479,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3421,7 +3493,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3433,19 +3505,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3494,31 +3566,31 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3526,10 +3598,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3552,16 +3624,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3611,7 +3683,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3626,13 +3698,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3643,10 +3715,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3657,7 +3729,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3666,20 +3738,22 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3728,25 +3802,25 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3760,10 +3834,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3771,7 +3845,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3780,22 +3854,22 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3821,13 +3895,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3845,10 +3919,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3860,13 +3934,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3877,10 +3951,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3891,7 +3965,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3900,22 +3974,20 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3964,13 +4036,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -3979,13 +4051,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3996,10 +4068,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4007,16 +4079,16 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
@@ -4025,13 +4097,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4057,14 +4129,14 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4081,13 +4153,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4096,13 +4168,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4136,19 +4208,23 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4196,7 +4272,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4208,16 +4284,16 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4228,10 +4304,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4239,7 +4315,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -4251,18 +4327,20 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4287,29 +4365,31 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4321,13 +4401,13 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4341,10 +4421,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4355,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4367,17 +4447,15 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4426,19 +4504,19 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4458,10 +4536,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4472,7 +4550,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4484,13 +4562,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4529,31 +4607,29 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4573,21 +4649,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4596,19 +4674,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4658,28 +4736,28 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4690,10 +4768,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4713,23 +4791,19 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4777,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4789,16 +4863,16 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4809,21 +4883,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4835,16 +4909,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4894,13 +4968,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4909,13 +4983,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4926,10 +5000,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4949,21 +5023,23 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5011,7 +5087,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5026,13 +5102,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5043,10 +5119,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5069,20 +5145,18 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5130,7 +5204,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5145,10 +5219,10 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -5162,10 +5236,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5176,7 +5250,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5185,19 +5259,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5223,13 +5297,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5247,13 +5321,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5262,10 +5336,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
@@ -5279,10 +5353,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5293,7 +5367,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5302,21 +5376,23 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5364,13 +5440,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5379,16 +5455,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5396,21 +5472,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5419,21 +5495,21 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5457,13 +5533,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5481,13 +5557,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5499,13 +5575,13 @@
         <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5539,16 +5615,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5613,16 +5689,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5637,7 +5713,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5656,17 +5732,15 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>301</v>
       </c>
@@ -5735,13 +5809,13 @@
         <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5749,10 +5823,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5772,23 +5846,21 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5836,7 +5908,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5851,16 +5923,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5868,10 +5940,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5882,7 +5954,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5891,20 +5963,22 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5929,13 +6003,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5953,13 +6027,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5968,16 +6042,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5985,10 +6059,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5999,7 +6073,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6008,21 +6082,23 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6070,31 +6146,31 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>183</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6102,10 +6178,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6116,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6125,19 +6201,21 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6161,13 +6239,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6185,25 +6263,25 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -6217,14 +6295,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6243,16 +6321,16 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6302,7 +6380,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6311,16 +6389,16 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6334,46 +6412,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6421,25 +6495,25 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
@@ -6453,10 +6527,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6464,10 +6538,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6479,20 +6553,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6528,37 +6598,35 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6572,12 +6640,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6598,20 +6668,18 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6659,25 +6727,25 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6691,14 +6759,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6711,25 +6779,25 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>355</v>
+        <v>158</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6754,13 +6822,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6778,7 +6846,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6787,16 +6855,16 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6810,18 +6878,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6836,7 +6904,7 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>358</v>
@@ -6897,10 +6965,10 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6955,7 +7023,7 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>364</v>
@@ -6966,7 +7034,9 @@
       <c r="N44" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7032,7 +7102,7 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -7046,10 +7116,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7057,10 +7127,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7072,19 +7142,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7109,13 +7179,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7133,16 +7203,16 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7151,7 +7221,7 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7165,14 +7235,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7191,16 +7261,20 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7248,7 +7322,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7260,13 +7334,13 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7280,10 +7354,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7291,11 +7365,11 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7306,15 +7380,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7351,35 +7427,37 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7393,10 +7471,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7419,18 +7497,20 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7454,13 +7534,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7478,25 +7558,25 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7510,10 +7590,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7536,13 +7616,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7593,7 +7673,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7625,10 +7705,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7636,7 +7716,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7645,26 +7725,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7700,19 +7776,17 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>234</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7724,13 +7798,13 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7744,18 +7818,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7770,15 +7846,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7827,25 +7905,25 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7859,21 +7937,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7885,17 +7963,15 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7944,25 +8020,25 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7976,14 +8052,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7999,22 +8075,22 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8063,7 +8139,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8075,13 +8151,13 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8095,10 +8171,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8106,7 +8182,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8121,17 +8197,15 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8180,10 +8254,10 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>232</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
@@ -8192,13 +8266,13 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8212,21 +8286,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8238,15 +8312,17 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8271,13 +8347,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8295,25 +8371,25 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>234</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8327,42 +8403,46 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8386,13 +8466,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8410,25 +8490,25 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8442,10 +8522,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8453,7 +8533,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8468,16 +8548,16 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8503,13 +8583,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8527,16 +8607,16 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8545,7 +8625,7 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8559,10 +8639,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8570,7 +8650,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8585,24 +8665,20 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8622,13 +8698,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8646,16 +8722,16 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8664,7 +8740,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8678,10 +8754,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8689,7 +8765,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -8704,79 +8780,73 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="P59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8785,7 +8855,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8799,10 +8869,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8825,20 +8895,18 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8862,13 +8930,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8886,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8895,7 +8963,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8904,7 +8972,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -8918,10 +8986,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8944,22 +9012,24 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9003,7 +9073,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9012,7 +9082,7 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9021,7 +9091,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9030,15 +9100,15 @@
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9061,22 +9131,26 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="R62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9120,7 +9194,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9203,7 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
@@ -9138,7 +9212,7 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9152,10 +9226,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9166,7 +9240,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9178,18 +9252,20 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9237,16 +9313,16 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
@@ -9255,7 +9331,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9269,10 +9345,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9295,15 +9371,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>163</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9352,7 +9430,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9361,16 +9439,16 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9379,26 +9457,26 @@
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9410,16 +9488,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>137</v>
+        <v>463</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9469,25 +9547,25 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9501,14 +9579,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9521,26 +9599,24 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>336</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9588,7 +9664,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>338</v>
+        <v>465</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9597,16 +9673,16 @@
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9620,10 +9696,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9631,7 +9707,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>88</v>
@@ -9646,17 +9722,15 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>450</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9681,13 +9755,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -9705,10 +9779,10 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>88</v>
@@ -9717,13 +9791,13 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9737,21 +9811,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -9763,24 +9837,22 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>457</v>
+        <v>157</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9824,25 +9896,25 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>454</v>
+        <v>234</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9856,14 +9928,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9876,25 +9948,25 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>462</v>
+        <v>157</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>463</v>
+        <v>158</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9943,7 +10015,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>459</v>
+        <v>356</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9952,16 +10024,16 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -9975,10 +10047,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9986,7 +10058,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10001,15 +10073,17 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>329</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10034,13 +10108,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -10058,10 +10132,10 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>217</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -10070,13 +10144,13 @@
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10090,21 +10164,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10116,22 +10190,24 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="R71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10175,25 +10251,25 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>223</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10207,14 +10283,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10227,25 +10303,25 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>337</v>
+        <v>484</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10294,7 +10370,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>338</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10303,16 +10379,16 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10326,10 +10402,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10337,7 +10413,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10352,17 +10428,15 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>469</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10387,13 +10461,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10411,10 +10485,10 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>88</v>
@@ -10423,13 +10497,13 @@
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10443,14 +10517,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10469,20 +10543,18 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10530,7 +10602,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>473</v>
+        <v>234</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10539,24 +10611,379 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Questionnaire.xlsx
+++ b/StructureDefinition-profile-Questionnaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2874713-06:00</t>
+    <t>2026-02-17T14:42:26.8850812-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.versionAlgorithm[x]` is will have a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+    <t>Element `Questionnaire.versionAlgorithm[x]` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -489,7 +489,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `Questionnaire.copyrightLabel` is will have a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+    <t>Element `Questionnaire.copyrightLabel` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>
@@ -758,7 +758,7 @@
     <t>Cross-version extension for Questionnaire.subjectType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Questionnaire.subjectType` is mapped to FHIR R4 element `Questionnaire.subjectType`.</t>
+    <t>Element `Questionnaire.subjectType` has is mapped to FHIR R4 element `Questionnaire.subjectType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Questionnaire.subjectType.value</t>
@@ -1092,24 +1092,21 @@
     <t>Questionnaire.item.extension</t>
   </si>
   <si>
-    <t>Questionnaire.item.extension:disabledDisplay</t>
-  </si>
-  <si>
-    <t>disabledDisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.disabledDisplay|0.0.1-snapshot-3}
+    <t>Questionnaire.item.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Questionnaire.item.disabledDisplay from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates if and how items that are disabled (because enableWhen evaluates to 'false') should be displayed.</t>
-  </si>
-  <si>
-    <t>Element `Questionnaire.item.disabledDisplay` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.disabledDisplay` is will have a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+    <t>Cross-version extension for Questionnaire.item from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.item` has is mapped to FHIR R4 element `Questionnaire.item`, but has no comparisons.
+Note available implied context: `Questionnaire.item.item` because `Questionnaire.item.item` is defined as a content reference to `Questionnaire.item`.</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1243,35 +1240,6 @@
   </si>
   <si>
     <t>N/A - MIF rather than RIM level</t>
-  </si>
-  <si>
-    <t>Questionnaire.item.type.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.item.type.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.item.type.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Questionnaire.item.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, Coding, etc.).</t>
-  </si>
-  <si>
-    <t>Element `Questionnaire.item.type` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.type` is mapped to FHIR R4 element `Questionnaire.item.type`.</t>
-  </si>
-  <si>
-    <t>Questionnaire.item.type.value</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen</t>
@@ -1897,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,7 +1884,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.83984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6656,7 +6624,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6674,10 +6642,10 @@
         <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6759,14 +6727,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6788,10 +6756,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>157</v>
@@ -6846,7 +6814,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6878,10 +6846,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6907,16 +6875,16 @@
         <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6965,7 +6933,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -6983,7 +6951,7 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6997,10 +6965,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7026,16 +6994,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7084,7 +7052,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7102,7 +7070,7 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -7116,10 +7084,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7145,16 +7113,16 @@
         <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7203,7 +7171,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7235,14 +7203,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7264,16 +7232,16 @@
         <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7322,7 +7290,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7340,7 +7308,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7354,10 +7322,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7383,13 +7351,13 @@
         <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7439,7 +7407,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7471,10 +7439,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7500,16 +7468,16 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7537,11 +7505,11 @@
         <v>208</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7558,7 +7526,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7576,7 +7544,7 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7590,10 +7558,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7604,28 +7572,32 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>230</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7673,25 +7645,25 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7705,10 +7677,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7716,11 +7688,11 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7731,13 +7703,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7776,35 +7748,37 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7818,23 +7792,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7846,16 +7818,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>157</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7914,7 +7886,7 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>139</v>
@@ -7923,7 +7895,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7937,42 +7909,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8020,25 +7996,25 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -8052,10 +8028,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8063,35 +8039,33 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O53" t="s" s="2">
         <v>406</v>
       </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8139,25 +8113,25 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8171,10 +8145,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8182,7 +8156,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8197,13 +8171,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8230,13 +8204,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8254,10 +8228,10 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>232</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
@@ -8266,13 +8240,13 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8286,21 +8260,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8312,17 +8286,15 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8347,13 +8319,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8371,25 +8343,25 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>234</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8403,46 +8375,44 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8466,13 +8436,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8490,25 +8460,25 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>391</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8522,10 +8492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8533,7 +8503,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8548,22 +8518,24 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="R57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8607,16 +8579,16 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8625,7 +8597,7 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8639,10 +8611,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8650,7 +8622,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8665,20 +8637,26 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="R58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8698,13 +8676,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8722,16 +8700,16 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8740,7 +8718,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8754,10 +8732,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8765,7 +8743,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -8780,16 +8758,20 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8813,13 +8795,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8837,16 +8819,16 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8855,7 +8837,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8869,10 +8851,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8895,16 +8877,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8930,13 +8912,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8954,7 +8936,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8963,7 +8945,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8972,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -8981,15 +8963,15 @@
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9012,24 +8994,22 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9073,7 +9053,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9062,7 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9091,7 +9071,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9105,10 +9085,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9119,7 +9099,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9131,26 +9111,22 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q62" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9194,16 +9170,16 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
@@ -9212,7 +9188,7 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9226,10 +9202,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9252,20 +9228,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9313,7 +9285,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>447</v>
+        <v>232</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9322,16 +9294,16 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9345,21 +9317,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9371,16 +9343,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>457</v>
+        <v>157</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9430,25 +9402,25 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>453</v>
+        <v>234</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9457,49 +9429,51 @@
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9547,25 +9521,25 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9579,10 +9553,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9590,10 +9564,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9605,16 +9579,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9640,13 +9614,13 @@
         <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>81</v>
@@ -9664,16 +9638,16 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9682,7 +9656,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9696,10 +9670,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9722,20 +9696,24 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9779,7 +9757,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>232</v>
+        <v>467</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9791,13 +9769,13 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9811,14 +9789,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9837,18 +9815,20 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9896,7 +9876,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9905,16 +9885,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9928,46 +9908,42 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10015,25 +9991,25 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10047,21 +10023,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10073,16 +10049,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>476</v>
+        <v>157</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10108,13 +10084,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -10132,25 +10108,25 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>234</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10164,50 +10140,50 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>353</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>354</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q71" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10251,25 +10227,25 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>355</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10283,10 +10259,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10294,10 +10270,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10309,7 +10285,7 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>334</v>
+        <v>482</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>483</v>
@@ -10320,9 +10296,7 @@
       <c r="N72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>486</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10346,13 +10320,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10370,16 +10344,16 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
@@ -10388,7 +10362,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10402,10 +10376,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10416,7 +10390,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10428,16 +10402,20 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>342</v>
+        <v>487</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10485,25 +10463,25 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>232</v>
+        <v>486</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>344</v>
+        <v>492</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10512,478 +10490,6 @@
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Questionnaire.xlsx
+++ b/StructureDefinition-profile-Questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8850812-06:00</t>
+    <t>2026-02-20T11:59:20.9265117-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Questionnaire|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Questionnaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,13 +450,33 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Questionnaire.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Questionnaire.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `Questionnaire.copyrightLabel` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+  </si>
+  <si>
     <t>Questionnaire.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -466,301 +486,283 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.versionAlgorithm[x]` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Questionnaire.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `Questionnaire.versionAlgorithm[x]` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the questionnaire</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>Definition.version</t>
+  </si>
+  <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
+    <t>Questionnaire.name</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (computer friendly)</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
+  </si>
+  <si>
+    <t>Support human navigation and code generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-0
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.title</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
+  </si>
+  <si>
+    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Questionnaire.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
+  </si>
+  <si>
+    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.derivedFrom</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>Questionnaire.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Questionnaire.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>For testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.experimental</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType</t>
+  </si>
+  <si>
+    <t>Resource that can be subject of QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
+  </si>
+  <si>
+    <t>If none are specified, then the subject is unlimited.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.subject[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.extension:subjectType</t>
+  </si>
+  <si>
+    <t>subjectType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.subjectType}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.subjectType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.subjectType` has is mapped to FHIR R4 element `Questionnaire.subjectType`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Questionnaire.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Questionnaire.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `Questionnaire.copyrightLabel` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Business version of the questionnaire</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>Definition.version</t>
-  </si>
-  <si>
-    <t>N/A (to add?)</t>
-  </si>
-  <si>
-    <t>FiveWs.version</t>
-  </si>
-  <si>
-    <t>Questionnaire.name</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
-  </si>
-  <si>
-    <t>Support human navigation and code generation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.title</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (human friendly)</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
-  </si>
-  <si>
-    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
-  </si>
-  <si>
-    <t>Definition.title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Questionnaire.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
-  </si>
-  <si>
-    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.derivedFrom</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>Questionnaire.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Questionnaire.experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>For testing purposes, not real usage</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.experimental</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType</t>
-  </si>
-  <si>
-    <t>Resource that can be subject of QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
-  </si>
-  <si>
-    <t>If none are specified, then the subject is unlimited.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.subject[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.extension:subjectType</t>
-  </si>
-  <si>
-    <t>subjectType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.subjectType|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Questionnaire.subjectType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Questionnaire.subjectType` has is mapped to FHIR R4 element `Questionnaire.subjectType`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>Questionnaire.subjectType.value</t>
   </si>
   <si>
@@ -1098,7 +1100,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item}
 </t>
   </si>
   <si>
@@ -1884,7 +1886,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.83984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3067,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3090,13 +3092,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
@@ -3118,16 +3120,16 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3186,7 +3188,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -3209,14 +3211,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3238,16 +3240,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3296,7 +3298,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3328,10 +3330,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3357,16 +3359,16 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3415,7 +3417,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3430,13 +3432,13 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3447,10 +3449,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3473,19 +3475,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3534,7 +3536,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3549,16 +3551,16 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3566,10 +3568,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3592,16 +3594,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3651,7 +3653,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3666,13 +3668,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3683,10 +3685,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3709,19 +3711,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3770,7 +3772,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3779,7 +3781,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3802,10 +3804,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3828,16 +3830,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3887,7 +3889,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3902,10 +3904,10 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3919,10 +3921,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3945,17 +3947,17 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4004,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4019,10 +4021,10 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -4036,10 +4038,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4065,13 +4067,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4097,14 +4099,14 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -4136,13 +4138,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4153,10 +4155,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4179,19 +4181,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4240,7 +4242,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4255,13 +4257,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4272,10 +4274,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4301,13 +4303,13 @@
         <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4333,14 +4335,14 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4357,7 +4359,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4372,10 +4374,10 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4389,10 +4391,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4415,13 +4417,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4472,7 +4474,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4504,10 +4506,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4585,7 +4587,7 @@
         <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4617,13 +4619,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>81</v>
@@ -4645,16 +4647,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4704,7 +4706,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4713,7 +4715,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>139</v>
@@ -4762,7 +4764,7 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>241</v>
@@ -4994,7 +4996,7 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>253</v>
@@ -5426,7 +5428,7 @@
         <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -5543,7 +5545,7 @@
         <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
@@ -5666,7 +5668,7 @@
         <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5777,13 +5779,13 @@
         <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5900,7 +5902,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6019,7 +6021,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6132,13 +6134,13 @@
         <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6406,7 +6408,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>342</v>
@@ -6463,7 +6465,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6576,7 +6578,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6695,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6704,7 +6706,7 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>139</v>
@@ -6762,10 +6764,10 @@
         <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6872,7 +6874,7 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>357</v>
@@ -7229,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>375</v>
@@ -7348,7 +7350,7 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>381</v>
@@ -7502,7 +7504,7 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
         <v>389</v>
@@ -7703,7 +7705,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>342</v>
@@ -7760,7 +7762,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7801,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7827,7 +7829,7 @@
         <v>401</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7877,7 +7879,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7944,10 +7946,10 @@
         <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8054,7 +8056,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>404</v>
@@ -8204,7 +8206,7 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>410</v>
@@ -8436,7 +8438,7 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>421</v>
@@ -8518,7 +8520,7 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>426</v>
@@ -8637,7 +8639,7 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>432</v>
@@ -8758,7 +8760,7 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>438</v>
@@ -9228,7 +9230,7 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>342</v>
@@ -9285,7 +9287,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9324,7 +9326,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9352,7 +9354,7 @@
         <v>401</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9402,7 +9404,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9469,10 +9471,10 @@
         <v>354</v>
       </c>
       <c r="N65" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9696,7 +9698,7 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>468</v>
@@ -9934,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>342</v>
@@ -9991,7 +9993,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10032,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10058,7 +10060,7 @@
         <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10108,7 +10110,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10175,10 +10177,10 @@
         <v>354</v>
       </c>
       <c r="N71" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-profile-Questionnaire.xlsx
+++ b/StructureDefinition-profile-Questionnaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="498">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9265117-06:00</t>
+    <t>2026-02-21T13:36:54.3307154-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Questionnaire</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Questionnaire|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -426,10 +426,273 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the questionnaire</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>Definition.version</t>
+  </si>
+  <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
+    <t>Questionnaire.name</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (computer friendly)</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
+  </si>
+  <si>
+    <t>Support human navigation and code generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-0
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.title</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
+  </si>
+  <si>
+    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Questionnaire.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
+  </si>
+  <si>
+    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.derivedFrom</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>Questionnaire.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Questionnaire.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>For testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.experimental</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType</t>
+  </si>
+  <si>
+    <t>Resource that can be subject of QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
+  </si>
+  <si>
+    <t>If none are specified, then the subject is unlimited.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.subject[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -443,320 +706,23 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType.extension:subjectType</t>
+  </si>
+  <si>
+    <t>subjectType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.subjectType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Questionnaire.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Questionnaire.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `Questionnaire.copyrightLabel` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Questionnaire.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Questionnaire.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `Questionnaire.versionAlgorithm[x]` has a context of Questionnaire based on following the parent source element upwards and mapping to `Questionnaire`.</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Business version of the questionnaire</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>Definition.version</t>
-  </si>
-  <si>
-    <t>N/A (to add?)</t>
-  </si>
-  <si>
-    <t>FiveWs.version</t>
-  </si>
-  <si>
-    <t>Questionnaire.name</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
-  </si>
-  <si>
-    <t>Support human navigation and code generation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.title</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (human friendly)</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
-  </si>
-  <si>
-    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
-  </si>
-  <si>
-    <t>Definition.title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Questionnaire.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
-  </si>
-  <si>
-    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.derivedFrom</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>Questionnaire.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Questionnaire.experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>For testing purposes, not real usage</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.experimental</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType</t>
-  </si>
-  <si>
-    <t>Resource that can be subject of QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
-  </si>
-  <si>
-    <t>If none are specified, then the subject is unlimited.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.subject[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType.extension:subjectType</t>
-  </si>
-  <si>
-    <t>subjectType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.subjectType}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for Questionnaire.subjectType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Questionnaire.subjectType` has is mapped to FHIR R4 element `Questionnaire.subjectType`, but has no comparisons.</t>
+    <t>Element `Questionnaire.subjectType` is mapped to FHIR R4 element `Questionnaire.subjectType` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1094,21 +1060,44 @@
     <t>Questionnaire.item.extension</t>
   </si>
   <si>
-    <t>Questionnaire.item.extension:item</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item}
+    <t>Questionnaire.item.extension:disabledDisplay</t>
+  </si>
+  <si>
+    <t>disabledDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.disabledDisplay|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Questionnaire.item from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Questionnaire.item` has is mapped to FHIR R4 element `Questionnaire.item`, but has no comparisons.
-Note available implied context: `Questionnaire.item.item` because `Questionnaire.item.item` is defined as a content reference to `Questionnaire.item`.</t>
+    <t>Cross-version extension for Questionnaire.item.disabledDisplay from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if and how items that are disabled (because enableWhen evaluates to 'false') should be displayed.</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.item.disabledDisplay` has a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.
+Note available implied context: `Questionnaire.item.item` because `Questionnaire.item.item` is defined via a content reference to `Questionnaire.item`.</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:answerConstraint</t>
+  </si>
+  <si>
+    <t>answerConstraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.answerConstraint|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.item.answerConstraint from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>For items that have a defined set of allowed answers (via answerOption or answerValueSet), indicates whether values *other* than those specified can be selected.</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.item.answerConstraint` has a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.
+Note available implied context: `Questionnaire.item.item` because `Questionnaire.item.item` is defined via a content reference to `Questionnaire.item`.</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1244,6 +1233,35 @@
     <t>N/A - MIF rather than RIM level</t>
   </si>
   <si>
+    <t>Questionnaire.item.type.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.type.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Questionnaire.item.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Questionnaire.item.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, Coding, etc.).</t>
+  </si>
+  <si>
+    <t>Element `Questionnaire.item.type` is mapped to FHIR R4 element `Questionnaire.item.type` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `Questionnaire.item.item.type` because `Questionnaire.item.item` is defined via a content reference to `Questionnaire.item`.</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.type.value</t>
+  </si>
+  <si>
     <t>Questionnaire.item.enableWhen</t>
   </si>
   <si>
@@ -1267,9 +1285,6 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1867,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1878,7 +1893,7 @@
   <cols>
     <col min="1" max="1" width="43.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1886,7 +1901,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2867,7 +2882,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2886,15 +2901,17 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2931,14 +2948,16 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2959,7 +2978,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2976,43 +2995,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3060,7 +3079,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3078,7 +3097,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -3092,14 +3111,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3117,21 +3134,23 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3179,28 +3198,28 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -3211,14 +3230,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3231,25 +3250,25 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3298,7 +3317,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3310,19 +3329,19 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3330,10 +3349,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3356,20 +3375,18 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3432,13 +3449,13 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3449,10 +3466,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3463,7 +3480,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3475,19 +3492,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3536,31 +3553,31 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3594,16 +3611,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3668,13 +3685,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3685,10 +3702,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3699,7 +3716,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3708,22 +3725,20 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3772,25 +3787,25 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3804,10 +3819,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3815,7 +3830,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3824,22 +3839,22 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3865,13 +3880,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3889,10 +3904,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3904,13 +3919,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3921,10 +3936,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3935,7 +3950,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3944,20 +3959,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4006,13 +4023,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -4021,13 +4038,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4038,10 +4055,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4049,16 +4066,16 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
@@ -4067,13 +4084,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4099,13 +4116,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4123,13 +4140,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4138,13 +4155,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4155,10 +4172,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4178,10 +4195,10 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>215</v>
@@ -4189,12 +4206,8 @@
       <c r="M20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4254,16 +4267,16 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4274,10 +4287,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4297,20 +4310,18 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4335,31 +4346,29 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4371,13 +4380,13 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4391,12 +4400,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4405,7 +4416,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4417,15 +4428,17 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4474,19 +4487,19 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4506,10 +4519,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4520,7 +4533,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4532,13 +4545,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4577,29 +4590,31 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4619,23 +4634,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4644,16 +4657,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>238</v>
@@ -4712,22 +4725,22 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4738,10 +4751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4761,19 +4774,23 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4833,16 +4850,16 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4853,21 +4870,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4879,16 +4896,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4938,13 +4955,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4953,13 +4970,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4970,10 +4987,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4993,23 +5010,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5057,7 +5072,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5072,13 +5087,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5089,10 +5104,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5115,18 +5130,20 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5189,10 +5206,10 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -5206,10 +5223,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5220,7 +5237,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5229,19 +5246,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5267,13 +5284,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5291,13 +5308,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5306,10 +5323,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
@@ -5323,10 +5340,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5337,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5346,23 +5363,21 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5410,13 +5425,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5425,16 +5440,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5442,21 +5457,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5465,21 +5480,21 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5503,37 +5518,37 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5542,16 +5557,16 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5559,10 +5574,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5585,16 +5600,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5644,7 +5659,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5659,16 +5674,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5676,14 +5691,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5702,17 +5717,19 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5761,7 +5778,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5776,16 +5793,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5793,10 +5810,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5816,21 +5833,23 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5878,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5893,16 +5912,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5910,10 +5929,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5924,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5933,22 +5952,20 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5973,13 +5990,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5997,13 +6014,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6012,16 +6029,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6029,10 +6046,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6043,7 +6060,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6052,23 +6069,21 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6116,31 +6131,31 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>182</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6148,10 +6163,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6162,7 +6177,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6171,21 +6186,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6209,13 +6222,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6233,25 +6246,25 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -6265,10 +6278,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6291,17 +6304,15 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6338,19 +6349,17 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6359,16 +6368,16 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6382,12 +6391,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6408,15 +6419,17 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6465,25 +6478,25 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
@@ -6497,12 +6510,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6511,7 +6526,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6523,15 +6538,17 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6568,17 +6585,19 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6587,7 +6606,7 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>139</v>
@@ -6610,16 +6629,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6632,24 +6649,26 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6706,7 +6725,7 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>139</v>
@@ -6715,7 +6734,7 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6729,45 +6748,45 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6816,25 +6835,25 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6848,10 +6867,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6859,7 +6878,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6874,19 +6893,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6935,10 +6954,10 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6953,7 +6972,7 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6967,10 +6986,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6981,7 +7000,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6993,19 +7012,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7030,13 +7049,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7054,16 +7073,16 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -7072,7 +7091,7 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -7086,21 +7105,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7112,19 +7131,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7149,13 +7168,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7173,16 +7192,16 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7191,7 +7210,7 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7205,14 +7224,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7231,20 +7250,18 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7292,7 +7309,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7310,7 +7327,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7324,10 +7341,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7335,7 +7352,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>88</v>
@@ -7350,18 +7367,20 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7385,13 +7404,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7409,10 +7428,10 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>88</v>
@@ -7427,7 +7446,7 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7441,10 +7460,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7452,7 +7471,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -7467,20 +7486,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7504,13 +7519,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7528,10 +7543,10 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>88</v>
@@ -7540,13 +7555,13 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7560,10 +7575,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7571,7 +7586,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7580,26 +7595,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>219</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7635,19 +7646,17 @@
         <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7659,13 +7668,13 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7679,18 +7688,20 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7705,15 +7716,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7762,25 +7775,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7794,21 +7807,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7820,17 +7833,15 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7879,25 +7890,25 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7911,14 +7922,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7934,22 +7945,22 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>156</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>157</v>
+        <v>402</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7998,7 +8009,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8010,13 +8021,13 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -8030,10 +8041,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8041,7 +8052,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8056,17 +8067,15 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8115,10 +8124,10 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
@@ -8127,13 +8136,13 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8147,21 +8156,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8173,15 +8182,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8206,13 +8217,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8230,25 +8241,25 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8262,42 +8273,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8321,13 +8336,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8345,25 +8360,25 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8377,10 +8392,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8388,7 +8403,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8403,16 +8418,16 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8438,13 +8453,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8462,16 +8477,16 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8480,7 +8495,7 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8494,10 +8509,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8505,7 +8520,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8520,24 +8535,20 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q57" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8557,13 +8568,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8581,16 +8592,16 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8599,7 +8610,7 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8613,10 +8624,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8624,7 +8635,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8639,26 +8650,20 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8678,13 +8683,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8702,16 +8707,16 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8720,7 +8725,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8734,10 +8739,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8760,20 +8765,18 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8797,13 +8800,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8821,7 +8824,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8830,7 +8833,7 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8839,7 +8842,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8853,10 +8856,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8879,22 +8882,24 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="R60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8947,7 +8952,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8956,7 +8961,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -8965,15 +8970,15 @@
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8996,22 +9001,26 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9055,7 +9064,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9064,7 +9073,7 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9073,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9087,10 +9096,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9101,7 +9110,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9113,18 +9122,20 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9172,16 +9183,16 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
@@ -9190,7 +9201,7 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9204,10 +9215,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9230,15 +9241,17 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9287,7 +9300,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9296,16 +9309,16 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9314,26 +9327,26 @@
         <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9345,16 +9358,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>156</v>
+        <v>458</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9404,25 +9417,25 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9436,14 +9449,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9456,26 +9469,24 @@
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>354</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9523,7 +9534,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9532,16 +9543,16 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9555,10 +9566,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9566,7 +9577,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9581,17 +9592,15 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9616,13 +9625,13 @@
         <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>81</v>
@@ -9640,10 +9649,10 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>462</v>
+        <v>217</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
@@ -9652,13 +9661,13 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9672,21 +9681,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9698,24 +9707,22 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>137</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9759,25 +9766,25 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>467</v>
+        <v>223</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9791,14 +9798,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9811,25 +9818,25 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>474</v>
+        <v>351</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>475</v>
+        <v>137</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -9878,7 +9885,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9887,16 +9894,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9910,10 +9917,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9921,7 +9928,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -9936,15 +9943,17 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>177</v>
+        <v>468</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9969,13 +9978,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -9993,10 +10002,10 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>231</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>88</v>
@@ -10005,13 +10014,13 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10025,21 +10034,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10051,22 +10060,24 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>156</v>
+        <v>475</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10110,25 +10121,25 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10142,14 +10153,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10162,25 +10173,25 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>353</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>354</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10229,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10238,16 +10249,16 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10261,10 +10272,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10272,7 +10283,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10287,17 +10298,15 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>482</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>332</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10322,13 +10331,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10346,10 +10355,10 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>217</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>88</v>
@@ -10358,13 +10367,13 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10378,14 +10387,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10404,20 +10413,18 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10465,7 +10472,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>223</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10474,24 +10481,379 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="B76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>81</v>
       </c>
     </row>
